--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.097357333333333</v>
+        <v>0.5218626666666667</v>
       </c>
       <c r="H2">
-        <v>12.292072</v>
+        <v>1.565588</v>
       </c>
       <c r="I2">
-        <v>0.03407839216891784</v>
+        <v>0.004473448591865398</v>
       </c>
       <c r="J2">
-        <v>0.03407839216891784</v>
+        <v>0.004473448591865398</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N2">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O2">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P2">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q2">
-        <v>100.4652023029547</v>
+        <v>7.373577659953334</v>
       </c>
       <c r="R2">
-        <v>904.186820726592</v>
+        <v>66.36219893958</v>
       </c>
       <c r="S2">
-        <v>0.01614135755195801</v>
+        <v>0.001527600904671965</v>
       </c>
       <c r="T2">
-        <v>0.01614135755195801</v>
+        <v>0.001527600904671965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.097357333333333</v>
+        <v>0.5218626666666667</v>
       </c>
       <c r="H3">
-        <v>12.292072</v>
+        <v>1.565588</v>
       </c>
       <c r="I3">
-        <v>0.03407839216891784</v>
+        <v>0.004473448591865398</v>
       </c>
       <c r="J3">
-        <v>0.03407839216891784</v>
+        <v>0.004473448591865398</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>44.109859</v>
       </c>
       <c r="O3">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P3">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q3">
-        <v>60.24461808198311</v>
+        <v>7.673096214676889</v>
       </c>
       <c r="R3">
-        <v>542.201562737848</v>
+        <v>69.057865932092</v>
       </c>
       <c r="S3">
-        <v>0.009679271018736058</v>
+        <v>0.001589652846926091</v>
       </c>
       <c r="T3">
-        <v>0.009679271018736058</v>
+        <v>0.001589652846926091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.097357333333333</v>
+        <v>0.5218626666666667</v>
       </c>
       <c r="H4">
-        <v>12.292072</v>
+        <v>1.565588</v>
       </c>
       <c r="I4">
-        <v>0.03407839216891784</v>
+        <v>0.004473448591865398</v>
       </c>
       <c r="J4">
-        <v>0.03407839216891784</v>
+        <v>0.004473448591865398</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>37.631841</v>
       </c>
       <c r="O4">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P4">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q4">
-        <v>51.39703322939467</v>
+        <v>6.546217631945335</v>
       </c>
       <c r="R4">
-        <v>462.573299064552</v>
+        <v>58.915958687508</v>
       </c>
       <c r="S4">
-        <v>0.008257763598223774</v>
+        <v>0.001356194840267343</v>
       </c>
       <c r="T4">
-        <v>0.008257763598223774</v>
+        <v>0.001356194840267342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>342.64151</v>
       </c>
       <c r="I5">
-        <v>0.9499351900257489</v>
+        <v>0.9790501590610901</v>
       </c>
       <c r="J5">
-        <v>0.9499351900257488</v>
+        <v>0.9790501590610901</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N5">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O5">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P5">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q5">
-        <v>2800.467538714373</v>
+        <v>1613.766702036983</v>
       </c>
       <c r="R5">
-        <v>25204.20784842936</v>
+        <v>14523.90031833285</v>
       </c>
       <c r="S5">
-        <v>0.4499403457002853</v>
+        <v>0.3343277290412088</v>
       </c>
       <c r="T5">
-        <v>0.4499403457002852</v>
+        <v>0.3343277290412088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>342.64151</v>
       </c>
       <c r="I6">
-        <v>0.9499351900257489</v>
+        <v>0.9790501590610901</v>
       </c>
       <c r="J6">
-        <v>0.9499351900257488</v>
+        <v>0.9790501590610901</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>44.109859</v>
       </c>
       <c r="O6">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P6">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q6">
         <v>1679.318743738565</v>
@@ -818,10 +818,10 @@
         <v>15113.86869364709</v>
       </c>
       <c r="S6">
-        <v>0.2698096820095881</v>
+        <v>0.3479082950601018</v>
       </c>
       <c r="T6">
-        <v>0.269809682009588</v>
+        <v>0.3479082950601018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>342.64151</v>
       </c>
       <c r="I7">
-        <v>0.9499351900257489</v>
+        <v>0.9790501590610901</v>
       </c>
       <c r="J7">
-        <v>0.9499351900257488</v>
+        <v>0.9790501590610901</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>37.631841</v>
       </c>
       <c r="O7">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P7">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q7">
         <v>1432.692313813323</v>
@@ -880,10 +880,10 @@
         <v>12894.23082431991</v>
       </c>
       <c r="S7">
-        <v>0.2301851623158755</v>
+        <v>0.2968141349597794</v>
       </c>
       <c r="T7">
-        <v>0.2301851623158754</v>
+        <v>0.2968141349597794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.766299</v>
       </c>
       <c r="I8">
-        <v>0.01598641780533329</v>
+        <v>0.0164763923470446</v>
       </c>
       <c r="J8">
-        <v>0.01598641780533329</v>
+        <v>0.0164763923470446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N8">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O8">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P8">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q8">
-        <v>47.12894584202934</v>
+        <v>27.15800931471833</v>
       </c>
       <c r="R8">
-        <v>424.160512578264</v>
+        <v>244.422083832465</v>
       </c>
       <c r="S8">
-        <v>0.007572026417555798</v>
+        <v>0.005626386743516842</v>
       </c>
       <c r="T8">
-        <v>0.007572026417555798</v>
+        <v>0.005626386743516842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.766299</v>
       </c>
       <c r="I9">
-        <v>0.01598641780533329</v>
+        <v>0.0164763923470446</v>
       </c>
       <c r="J9">
-        <v>0.01598641780533329</v>
+        <v>0.0164763923470446</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>44.109859</v>
       </c>
       <c r="O9">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P9">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q9">
         <v>28.26118176020456</v>
@@ -1004,10 +1004,10 @@
         <v>254.350635841841</v>
       </c>
       <c r="S9">
-        <v>0.004540615349150796</v>
+        <v>0.005854933495643217</v>
       </c>
       <c r="T9">
-        <v>0.004540615349150796</v>
+        <v>0.005854933495643217</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.766299</v>
       </c>
       <c r="I10">
-        <v>0.01598641780533329</v>
+        <v>0.0164763923470446</v>
       </c>
       <c r="J10">
-        <v>0.01598641780533329</v>
+        <v>0.0164763923470446</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>37.631841</v>
       </c>
       <c r="O10">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P10">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q10">
         <v>24.11071634738434</v>
@@ -1066,10 +1066,10 @@
         <v>216.996447126459</v>
       </c>
       <c r="S10">
-        <v>0.003873776038626698</v>
+        <v>0.004995072107884539</v>
       </c>
       <c r="T10">
-        <v>0.003873776038626698</v>
+        <v>0.004995072107884538</v>
       </c>
     </row>
   </sheetData>
